--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Wnt1</t>
   </si>
   <si>
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H2">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N2">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q2">
-        <v>0.01025793544533333</v>
+        <v>0.04810075244299999</v>
       </c>
       <c r="R2">
-        <v>0.09232141900800001</v>
+        <v>0.4329067719869999</v>
       </c>
       <c r="S2">
-        <v>0.02587852307343662</v>
+        <v>0.01921752243700393</v>
       </c>
       <c r="T2">
-        <v>0.02587852307343662</v>
+        <v>0.01921752243700393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H3">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q3">
-        <v>0.3646054009173333</v>
+        <v>1.466513164120667</v>
       </c>
       <c r="R3">
-        <v>3.281448608256</v>
+        <v>13.198618477086</v>
       </c>
       <c r="S3">
-        <v>0.9198195222247485</v>
+        <v>0.5859107852636495</v>
       </c>
       <c r="T3">
-        <v>0.9198195222247485</v>
+        <v>0.5859107852636495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H4">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N4">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q4">
-        <v>3.518472533333333E-05</v>
+        <v>0.004557366770666666</v>
       </c>
       <c r="R4">
-        <v>0.0003166625280000001</v>
+        <v>0.041016300936</v>
       </c>
       <c r="S4">
-        <v>8.876335118539137E-05</v>
+        <v>0.001820788526597951</v>
       </c>
       <c r="T4">
-        <v>8.876335118539136E-05</v>
+        <v>0.001820788526597951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H5">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N5">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q5">
-        <v>0.021300487936</v>
+        <v>0.140513644796</v>
       </c>
       <c r="R5">
-        <v>0.191704391424</v>
+        <v>1.264622803164</v>
       </c>
       <c r="S5">
-        <v>0.0537364630012372</v>
+        <v>0.05613891642905687</v>
       </c>
       <c r="T5">
-        <v>0.0537364630012372</v>
+        <v>0.05613891642905687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,46 +788,666 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
+        <v>0.09370099999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.281103</v>
+      </c>
+      <c r="I6">
+        <v>0.6634967391997054</v>
+      </c>
+      <c r="J6">
+        <v>0.6634967391997054</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.010918</v>
+      </c>
+      <c r="N6">
+        <v>0.032754</v>
+      </c>
+      <c r="O6">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P6">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q6">
+        <v>0.001023027518</v>
+      </c>
+      <c r="R6">
+        <v>0.009207247662</v>
+      </c>
+      <c r="S6">
+        <v>0.0004087265433973169</v>
+      </c>
+      <c r="T6">
+        <v>0.0004087265433973169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
         <v>0.023296</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0.06988800000000001</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="I7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.513343</v>
+      </c>
+      <c r="N7">
+        <v>1.540029</v>
+      </c>
+      <c r="O7">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="P7">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="Q7">
+        <v>0.011958838528</v>
+      </c>
+      <c r="R7">
+        <v>0.107629546752</v>
+      </c>
+      <c r="S7">
+        <v>0.004777872196587481</v>
+      </c>
+      <c r="T7">
+        <v>0.00477787219658748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M6">
-        <v>0.008111666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.024335</v>
-      </c>
-      <c r="O6">
-        <v>0.0004767283493922972</v>
-      </c>
-      <c r="P6">
-        <v>0.0004767283493922972</v>
-      </c>
-      <c r="Q6">
-        <v>0.0001889693866666667</v>
-      </c>
-      <c r="R6">
-        <v>0.00170072448</v>
-      </c>
-      <c r="S6">
-        <v>0.0004767283493922972</v>
-      </c>
-      <c r="T6">
-        <v>0.0004767283493922972</v>
+      <c r="G8">
+        <v>0.023296</v>
+      </c>
+      <c r="H8">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J8">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N8">
+        <v>46.952962</v>
+      </c>
+      <c r="O8">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="P8">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="Q8">
+        <v>0.3646054009173333</v>
+      </c>
+      <c r="R8">
+        <v>3.281448608256</v>
+      </c>
+      <c r="S8">
+        <v>0.1456694982284285</v>
+      </c>
+      <c r="T8">
+        <v>0.1456694982284285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.023296</v>
+      </c>
+      <c r="H9">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J9">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.04863733333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.145912</v>
+      </c>
+      <c r="O9">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="P9">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="Q9">
+        <v>0.001133055317333333</v>
+      </c>
+      <c r="R9">
+        <v>0.010197497856</v>
+      </c>
+      <c r="S9">
+        <v>0.0004526855584852444</v>
+      </c>
+      <c r="T9">
+        <v>0.0004526855584852444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.023296</v>
+      </c>
+      <c r="H10">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J10">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.499596</v>
+      </c>
+      <c r="N10">
+        <v>4.498788</v>
+      </c>
+      <c r="O10">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="P10">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="Q10">
+        <v>0.03493458841600001</v>
+      </c>
+      <c r="R10">
+        <v>0.3144112957440001</v>
+      </c>
+      <c r="S10">
+        <v>0.01395729178057128</v>
+      </c>
+      <c r="T10">
+        <v>0.01395729178057127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.023296</v>
+      </c>
+      <c r="H11">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J11">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.010918</v>
+      </c>
+      <c r="N11">
+        <v>0.032754</v>
+      </c>
+      <c r="O11">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P11">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q11">
+        <v>0.000254345728</v>
+      </c>
+      <c r="R11">
+        <v>0.002289111552</v>
+      </c>
+      <c r="S11">
+        <v>0.0001016178435127042</v>
+      </c>
+      <c r="T11">
+        <v>0.0001016178435127042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.024226</v>
+      </c>
+      <c r="H12">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J12">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.513343</v>
+      </c>
+      <c r="N12">
+        <v>1.540029</v>
+      </c>
+      <c r="O12">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="P12">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="Q12">
+        <v>0.012436247518</v>
+      </c>
+      <c r="R12">
+        <v>0.111926227662</v>
+      </c>
+      <c r="S12">
+        <v>0.004968609711303585</v>
+      </c>
+      <c r="T12">
+        <v>0.004968609711303584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.024226</v>
+      </c>
+      <c r="H13">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J13">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N13">
+        <v>46.952962</v>
+      </c>
+      <c r="O13">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="P13">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="Q13">
+        <v>0.3791608191373333</v>
+      </c>
+      <c r="R13">
+        <v>3.412447372236</v>
+      </c>
+      <c r="S13">
+        <v>0.1514847726683512</v>
+      </c>
+      <c r="T13">
+        <v>0.1514847726683512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.024226</v>
+      </c>
+      <c r="H14">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J14">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04863733333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.145912</v>
+      </c>
+      <c r="O14">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="P14">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="Q14">
+        <v>0.001178288037333333</v>
+      </c>
+      <c r="R14">
+        <v>0.010604592336</v>
+      </c>
+      <c r="S14">
+        <v>0.0004707572261273837</v>
+      </c>
+      <c r="T14">
+        <v>0.0004707572261273837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.024226</v>
+      </c>
+      <c r="H15">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J15">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.499596</v>
+      </c>
+      <c r="N15">
+        <v>4.498788</v>
+      </c>
+      <c r="O15">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="P15">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="Q15">
+        <v>0.03632921269600001</v>
+      </c>
+      <c r="R15">
+        <v>0.326962914264</v>
+      </c>
+      <c r="S15">
+        <v>0.01451448105580871</v>
+      </c>
+      <c r="T15">
+        <v>0.01451448105580871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.024226</v>
+      </c>
+      <c r="H16">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J16">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.010918</v>
+      </c>
+      <c r="N16">
+        <v>0.032754</v>
+      </c>
+      <c r="O16">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P16">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q16">
+        <v>0.000264499468</v>
+      </c>
+      <c r="R16">
+        <v>0.002380495212</v>
+      </c>
+      <c r="S16">
+        <v>0.0001056745311185943</v>
+      </c>
+      <c r="T16">
+        <v>0.0001056745311185943</v>
       </c>
     </row>
   </sheetData>
